--- a/Income/CME_inc.xlsx
+++ b/Income/CME_inc.xlsx
@@ -1653,16 +1653,16 @@
         <v>0.9999</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.9999</v>
+        <v>1.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1.0</v>
+        <v>1.0001</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.9999</v>
+        <v>1.0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.9999</v>
+        <v>1.0</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1.0</v>
@@ -1780,16 +1780,16 @@
         <v>0.54</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.5474</v>
+        <v>0.5475</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.5577</v>
+        <v>0.5578</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.5597</v>
+        <v>0.5598</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.5315</v>
+        <v>0.5316</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.5366</v>
@@ -1907,7 +1907,7 @@
         <v>0.5573</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.5709</v>
+        <v>0.571</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0.5854</v>
@@ -1916,7 +1916,7 @@
         <v>0.5831</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.5524</v>
+        <v>0.5525</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.5509</v>
@@ -2161,16 +2161,16 @@
         <v>0.5156</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.5242</v>
+        <v>0.5243</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.5997</v>
+        <v>0.5998</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0.4839</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.4985</v>
+        <v>0.4986</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.4487</v>
@@ -3179,7 +3179,7 @@
         <v>0.6351</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.6408</v>
+        <v>0.6409</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0.6482</v>
@@ -3188,7 +3188,7 @@
         <v>0.6504</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.6287</v>
+        <v>0.6288</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>0.627</v>
@@ -3309,13 +3309,13 @@
         <v>0.5636</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0.6394</v>
+        <v>0.6395</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>0.5298</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.549</v>
+        <v>0.5491</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0.4961</v>
